--- a/Data/test_data.xlsx
+++ b/Data/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Work\Visual Studio\iLabJobs\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E84855-0C46-4105-AA3A-D8FE27F85C39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E07382B-744E-4B6E-A4D3-7F8AA51B0ABD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D39F1A72-0E8F-42F9-9E12-02BCCBFAF8DD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -57,7 +57,7 @@
     <t>automationAssessment@iLABQuality.com</t>
   </si>
   <si>
-    <t>07 Sep 2020 23:07:11</t>
+    <t>09 Sep 2020 17:14:42</t>
   </si>
   <si>
     <t>Pass</t>
@@ -69,7 +69,10 @@
     <t>firefox</t>
   </si>
   <si>
-    <t>07 Sep 2020 23:06:11</t>
+    <t>Sihle Pangumso</t>
+  </si>
+  <si>
+    <t>09 Sep 2020 17:16:37</t>
   </si>
 </sst>
 </file>
@@ -453,7 +456,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -548,13 +551,13 @@
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
@@ -615,8 +618,8 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId8"/>
-    <hyperlink ref="D3" r:id="rId9"/>
+    <hyperlink ref="D2" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>

--- a/Data/test_data.xlsx
+++ b/Data/test_data.xlsx
@@ -57,7 +57,7 @@
     <t>automationAssessment@iLABQuality.com</t>
   </si>
   <si>
-    <t>09 Sep 2020 17:14:42</t>
+    <t>09 Sep 2020 21:50:25</t>
   </si>
   <si>
     <t>Pass</t>
@@ -72,7 +72,7 @@
     <t>Sihle Pangumso</t>
   </si>
   <si>
-    <t>09 Sep 2020 17:16:37</t>
+    <t>09 Sep 2020 21:52:06</t>
   </si>
 </sst>
 </file>
@@ -618,8 +618,8 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId3"/>
-    <hyperlink ref="D3" r:id="rId4"/>
+    <hyperlink ref="D2" r:id="rId13"/>
+    <hyperlink ref="D3" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
